--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2900123.88163644</v>
+        <v>2895818.165260369</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>36.31606325004106</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>91.80092000665026</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -822,16 +822,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>4.440065804380628</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>207.2013025968596</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -946,25 +946,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>90.03590933848086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>72.65793777463476</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>223.2364575658186</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>23.12132905716833</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>117.1787445009434</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>202.3860496764733</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>10.58364443467445</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0.6452826062320446</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
-        <v>48.15331591778292</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2295,19 +2295,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>156.0235370972432</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>94.5970333621318</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>83.87284639171752</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>143.1086912616885</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>176.5196562849262</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>206.5509998577711</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>94.91529601901398</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>70.0455488112438</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>27.02919805176216</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4185,13 +4185,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>919.5755868835438</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C2" t="n">
-        <v>919.5755868835438</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D2" t="n">
-        <v>919.5755868835438</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E2" t="n">
-        <v>919.5755868835438</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>508.5896820939362</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>90.6258739921231</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>90.6258739921231</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2549.392199521796</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2549.392199521796</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2295.630414159888</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y2" t="n">
-        <v>919.5755868835438</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="3">
@@ -4403,28 +4403,28 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1791.109440255352</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>743.8979228366049</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>2177.709280319473</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="6">
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>296.2710210862863</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>127.3348381583794</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>127.3348381583794</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>127.3348381583794</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>127.3348381583794</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>632.5337622027571</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>343.360151857325</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>477.919485916526</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>823.1606062116343</v>
+        <v>453.2058773455032</v>
       </c>
       <c r="C8" t="n">
-        <v>823.1606062116343</v>
+        <v>84.24336040509149</v>
       </c>
       <c r="D8" t="n">
-        <v>823.1606062116343</v>
+        <v>84.24336040509149</v>
       </c>
       <c r="E8" t="n">
-        <v>597.6692349330297</v>
+        <v>84.24336040509149</v>
       </c>
       <c r="F8" t="n">
-        <v>590.7237341838262</v>
+        <v>77.29785965588802</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4834,22 +4834,22 @@
         <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.134191782762</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="V8" t="n">
-        <v>2326.134191782762</v>
+        <v>1956.179462916631</v>
       </c>
       <c r="W8" t="n">
-        <v>1973.365536512648</v>
+        <v>1603.410807646517</v>
       </c>
       <c r="X8" t="n">
-        <v>1599.899778251568</v>
+        <v>1229.945049385437</v>
       </c>
       <c r="Y8" t="n">
-        <v>1209.760446275756</v>
+        <v>839.805717409625</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1646.937527316293</v>
+        <v>1067.230262346898</v>
       </c>
       <c r="N9" t="n">
-        <v>1845.594268968958</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2395.030277721681</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2503.71990524898</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>376.804469925216</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>376.804469925216</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>376.804469925216</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>376.804469925216</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>376.804469925216</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>208.1976249205994</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>715.9594172515172</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>597.5970490687461</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>597.5970490687461</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>376.804469925216</v>
+        <v>849.4473100711502</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,7 +5029,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,10 +5053,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5074,7 +5074,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
         <v>2129.438138565707</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,37 +5293,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2186.371995553553</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1897.296768897751</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1642.612280691864</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="W16" t="n">
-        <v>1353.195110654903</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.195110654903</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>915.1035305473698</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>746.1673476194629</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>746.1673476194629</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>598.2542540370698</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>451.3643065391594</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>284.1682072540394</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>142.4563760962374</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5737,19 +5737,19 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5779,10 +5779,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466572</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>866.4638174991043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1276.101833227361</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1048.112282329344</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1048.112282329344</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5983,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192507</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6080,13 +6080,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2024.390058741045</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6317,16 +6317,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171301</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C28" t="n">
-        <v>637.9025067654818</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473698</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6551,19 +6551,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2235.363146234998</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2015.761681257939</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1726.686454602137</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.686454602137</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1437.269284565176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2351.089047197418</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2131.487582220359</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7405,31 +7405,31 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7496,19 +7496,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.7772127656159</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>782.841029837709</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1354.218256739386</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7742,7 +7742,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2757.723669558405</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>2588.787486630498</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>2561.485266376193</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>2561.485266376193</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>2561.485266376193</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532175</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>2939.372134388645</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>167.9634363311153</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>110.940598798421</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>206.8218058926138</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>251.4923607175959</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
-        <v>33.11252040078261</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>130.4994612393478</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>72.64978773649604</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>202.6501519448735</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>37.91759473995606</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>10.85445046951719</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>86.11098998263061</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>216.1389255780003</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>121.5862749664502</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>75.37549921168767</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>751490.1564333544</v>
+        <v>751490.1564333542</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>751490.1564333544</v>
+        <v>751490.1564333542</v>
       </c>
     </row>
     <row r="8">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>751490.1564333544</v>
+        <v>751490.1564333542</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>751490.1564333545</v>
+        <v>751490.1564333542</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>751490.1564333544</v>
+        <v>751490.1564333545</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380334</v>
@@ -26322,40 +26322,40 @@
         <v>677359.4601380342</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="G2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="J2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="M2" t="n">
         <v>665895.9447442549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442547</v>
       </c>
       <c r="N2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442552</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,16 +26432,16 @@
         <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682809</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682809</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682784</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682744</v>
@@ -26453,13 +26453,13 @@
         <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-205389.9126029539</v>
+        <v>-205389.9126029535</v>
       </c>
       <c r="C6" t="n">
         <v>384577.9666115906</v>
@@ -26530,40 +26530,40 @@
         <v>228774.1605177965</v>
       </c>
       <c r="E6" t="n">
-        <v>-211956.8130271416</v>
+        <v>-212304.1922814985</v>
       </c>
       <c r="F6" t="n">
-        <v>559095.8783536655</v>
+        <v>558748.4990993084</v>
       </c>
       <c r="G6" t="n">
-        <v>559095.878353665</v>
+        <v>558748.4990993079</v>
       </c>
       <c r="H6" t="n">
-        <v>559095.8783536651</v>
+        <v>558748.4990993083</v>
       </c>
       <c r="I6" t="n">
-        <v>559095.8783536652</v>
+        <v>558748.499099308</v>
       </c>
       <c r="J6" t="n">
-        <v>382672.659161072</v>
+        <v>382325.2799067151</v>
       </c>
       <c r="K6" t="n">
-        <v>559095.8783536651</v>
+        <v>558748.499099308</v>
       </c>
       <c r="L6" t="n">
-        <v>559095.8783536649</v>
+        <v>558748.4990993083</v>
       </c>
       <c r="M6" t="n">
-        <v>434887.3676456063</v>
+        <v>434539.9883912496</v>
       </c>
       <c r="N6" t="n">
-        <v>559095.878353665</v>
+        <v>558748.499099308</v>
       </c>
       <c r="O6" t="n">
-        <v>559095.8783536654</v>
+        <v>558748.4990993082</v>
       </c>
       <c r="P6" t="n">
-        <v>559095.8783536652</v>
+        <v>558748.4990993084</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>115.6152529948202</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.61479280232128</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27542,16 +27542,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>141.9938968421885</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>110.3648512204696</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>206.5828674239353</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>296.2020293175727</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>94.65186448441615</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27827,22 +27827,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>130.3958356744439</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>158.6939125064432</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>389.7955748887684</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>169.3442538356476</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>16.19860367562146</v>
       </c>
     </row>
     <row r="11">
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>169.2687847673334</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>677.7372574190229</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32332,13 +32332,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32554,25 +32554,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O21" t="n">
-        <v>574.6535388222619</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>156.3072281639545</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O27" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33271,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>368.6279838366855</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,25 +33505,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33739,25 +33739,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33906,7 +33906,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,7 +33985,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
@@ -33994,7 +33994,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>279.2419622547056</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,16 +34786,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35260,19 +35260,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>368.6268117378473</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.9072060731453</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>27.13475084531504</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35661,7 +35661,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243153</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>535.1410129745784</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35980,13 +35980,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O21" t="n">
-        <v>432.0572943778175</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>22.33282074962425</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O27" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>237.2862717533522</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37086,10 +37086,10 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37387,25 +37387,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37554,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,7 +37633,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>140.6875824748315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2895818.165260369</v>
+        <v>2897578.695563156</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>91.80092000665026</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>165.8778138349996</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>4.440065804380628</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>207.2013025968596</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>4.669905662784863</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>72.65793777463476</v>
+        <v>101.780687729549</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1138,19 +1138,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>23.12132905716833</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>288.4836500126194</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>39.22093932365004</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764733</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0.6452826062320446</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>9.795251606876045</v>
       </c>
     </row>
     <row r="17">
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428169</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>239.7247859410136</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>83.87284639171752</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4143,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4185,13 +4185,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>105.6507867899569</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1187.828354776384</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="C2" t="n">
-        <v>818.8658378359718</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="D2" t="n">
-        <v>460.6001392292213</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2549.392199521796</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2549.392199521796</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2295.630414159888</v>
+        <v>2079.754899526868</v>
       </c>
       <c r="V2" t="n">
-        <v>1964.567526816317</v>
+        <v>1748.692012183297</v>
       </c>
       <c r="W2" t="n">
-        <v>1964.567526816317</v>
+        <v>1395.923356913183</v>
       </c>
       <c r="X2" t="n">
-        <v>1964.567526816317</v>
+        <v>1022.457598652103</v>
       </c>
       <c r="Y2" t="n">
-        <v>1574.428194840505</v>
+        <v>632.3182666762915</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482876</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>227.4276970359519</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
         <v>222.942782082032</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1154.883827626212</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C5" t="n">
-        <v>1154.883827626212</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>1154.883827626212</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>1154.883827626212</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>743.8979228366049</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2692.432014591167</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2692.432014591167</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2438.670229229258</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626212</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y5" t="n">
-        <v>1154.883827626212</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="6">
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>296.2710210862863</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C7" t="n">
-        <v>127.3348381583794</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D7" t="n">
-        <v>127.3348381583794</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="E7" t="n">
-        <v>127.3348381583794</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="F7" t="n">
-        <v>127.3348381583794</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>477.919485916526</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>453.2058773455032</v>
+        <v>1900.64251019608</v>
       </c>
       <c r="C8" t="n">
-        <v>84.24336040509149</v>
+        <v>1531.679993255668</v>
       </c>
       <c r="D8" t="n">
-        <v>84.24336040509149</v>
+        <v>1173.414294648918</v>
       </c>
       <c r="E8" t="n">
-        <v>84.24336040509149</v>
+        <v>1173.414294648918</v>
       </c>
       <c r="F8" t="n">
-        <v>77.29785965588802</v>
+        <v>762.4283898593101</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>345.3406080957375</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,25 +4804,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>192.4307036906658</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>745.243961936865</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4840,16 +4840,16 @@
         <v>2287.242350260201</v>
       </c>
       <c r="V8" t="n">
-        <v>1956.179462916631</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="W8" t="n">
-        <v>1603.410807646517</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="X8" t="n">
-        <v>1229.945049385437</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="Y8" t="n">
-        <v>839.805717409625</v>
+        <v>2287.242350260201</v>
       </c>
     </row>
     <row r="9">
@@ -4892,16 +4892,16 @@
         <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1067.230262346898</v>
+        <v>1528.278275459397</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1726.935017112062</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2276.371025864785</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>538.7834855023629</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>369.8473025744559</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>219.7306631621202</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4995,19 +4995,19 @@
         <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>1014.26055285178</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>759.576064645893</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>759.576064645893</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>759.576064645893</v>
       </c>
       <c r="Y10" t="n">
-        <v>849.4473100711502</v>
+        <v>538.7834855023629</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,43 +5029,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492579</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5132,10 +5132,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5272,58 +5272,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1754.779756989948</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1016.58045691144</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,40 +5527,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5843,10 +5843,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="23">
@@ -5968,40 +5968,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192507</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6080,10 +6080,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,7 +6217,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6314,7 +6314,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N27" t="n">
         <v>2129.438138565707</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>718.5507239167111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6423,13 +6423,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1348.981318788498</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1120.991767890481</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>900.1991887469509</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,13 +6478,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6551,7 +6551,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
         <v>2129.438138565707</v>
@@ -6791,10 +6791,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F43" t="n">
         <v>402.7245934908939</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7736,16 +7736,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>35.04072454780376</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>167.9634363311153</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7984289569017</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>251.4923607175959</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>208.7894017452188</v>
       </c>
     </row>
     <row r="17">
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>202.6501519448735</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>75.37549921168767</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>751490.1564333544</v>
+        <v>751490.1564333542</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>751490.1564333542</v>
+        <v>751490.1564333544</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>751490.1564333542</v>
+        <v>751490.1564333544</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>751490.1564333545</v>
+        <v>751490.1564333544</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>677359.4601380337</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380342</v>
+        <v>677359.4601380343</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="F2" t="n">
         <v>665895.9447442547</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>665895.9447442554</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="I2" t="n">
         <v>665895.9447442552</v>
-      </c>
-      <c r="G2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442548</v>
       </c>
       <c r="J2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="M2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="O2" t="n">
+        <v>665895.9447442545</v>
+      </c>
+      <c r="P2" t="n">
         <v>665895.944744255</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442552</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630333</v>
+        <v>209922.4154630334</v>
       </c>
       <c r="D4" t="n">
         <v>176266.9759012793</v>
@@ -26432,22 +26432,22 @@
         <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682809</v>
+        <v>5677.536566682729</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682809</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
         <v>5677.536566682745</v>
@@ -26524,46 +26524,46 @@
         <v>-205389.9126029535</v>
       </c>
       <c r="C6" t="n">
-        <v>384577.9666115906</v>
+        <v>384577.9666115907</v>
       </c>
       <c r="D6" t="n">
-        <v>228774.1605177965</v>
+        <v>228774.1605177966</v>
       </c>
       <c r="E6" t="n">
-        <v>-212304.1922814985</v>
+        <v>-211991.5509525771</v>
       </c>
       <c r="F6" t="n">
-        <v>558748.4990993084</v>
+        <v>559061.1404282295</v>
       </c>
       <c r="G6" t="n">
-        <v>558748.4990993079</v>
+        <v>559061.1404282297</v>
       </c>
       <c r="H6" t="n">
-        <v>558748.4990993083</v>
+        <v>559061.1404282298</v>
       </c>
       <c r="I6" t="n">
-        <v>558748.499099308</v>
+        <v>559061.1404282298</v>
       </c>
       <c r="J6" t="n">
-        <v>382325.2799067151</v>
+        <v>382637.9212356364</v>
       </c>
       <c r="K6" t="n">
-        <v>558748.499099308</v>
+        <v>559061.1404282292</v>
       </c>
       <c r="L6" t="n">
-        <v>558748.4990993083</v>
+        <v>559061.1404282297</v>
       </c>
       <c r="M6" t="n">
-        <v>434539.9883912496</v>
+        <v>434852.6297201706</v>
       </c>
       <c r="N6" t="n">
-        <v>558748.499099308</v>
+        <v>559061.1404282292</v>
       </c>
       <c r="O6" t="n">
-        <v>558748.4990993082</v>
+        <v>559061.140428229</v>
       </c>
       <c r="P6" t="n">
-        <v>558748.4990993084</v>
+        <v>559061.1404282296</v>
       </c>
     </row>
   </sheetData>
@@ -26798,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.61479280232128</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>85.34635367328966</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>141.9938968421885</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27621,16 +27621,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>206.5828674239353</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>169.7458071461867</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>94.65186448441615</v>
+        <v>65.52911452950187</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>389.7955748887684</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>26.55723406259619</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27912,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28034,7 +28034,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28067,10 +28067,10 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>247.039715334447</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>593.5422977113961</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32800,13 +32800,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33034,10 +33034,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N27" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -33271,10 +33271,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N30" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
@@ -33511,13 +33511,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,13 +33745,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,31 +33970,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>360.9226811202611</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34131,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34213,10 +34213,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34456,19 +34456,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34938,7 +34938,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L5" t="n">
         <v>421.5361394435301</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>118.4378503807253</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>368.6268117378473</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>340.5859315097288</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>462.2005856280628</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35661,7 +35661,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243153</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36448,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36682,10 +36682,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,10 +36919,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37089,10 +37089,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37159,13 +37159,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,13 +37393,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>220.9409070342396</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37861,10 +37861,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
